--- a/Data/EC/NIT-9000733303.xlsx
+++ b/Data/EC/NIT-9000733303.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2B3A6AA-0554-4444-BF59-96E76A810BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70B91EA2-9DD9-4CDE-850F-5904D539216D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{42D9825A-2740-4000-B0E8-6D0221C0CB1A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0BE473DE-7320-4A92-A740-FE3438B91E56}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,70 +71,70 @@
     <t>ANDI JOSE BANQUEZ JULIO</t>
   </si>
   <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
     <t>1705</t>
   </si>
   <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
     <t>79328825</t>
   </si>
   <si>
     <t>SANTIAGO FERNANDO SANCHEZ GOMEZ</t>
   </si>
   <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
   </si>
   <si>
     <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -548,7 +548,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12A9B1E8-EE1D-38FD-920B-7215FCDB0A9E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8524BF07-E4F1-FB9F-8A66-D43FF5FF9489}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -899,7 +899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A954A55C-A002-4997-A52E-62906EE894EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0EAFE7C-098D-4878-B900-0631546EEDCC}">
   <dimension ref="B2:J45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1183,19 +1183,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F21" s="18">
-        <v>40000</v>
+        <v>29509</v>
       </c>
       <c r="G21" s="18">
-        <v>1000000</v>
+        <v>737717</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1212,7 +1212,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>29509</v>
@@ -1235,7 +1235,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>29509</v>
@@ -1252,19 +1252,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>40000</v>
+        <v>29509</v>
       </c>
       <c r="G24" s="18">
-        <v>1000000</v>
+        <v>737717</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1275,19 +1275,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
-        <v>29509</v>
+        <v>38666</v>
       </c>
       <c r="G25" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1298,13 +1298,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
         <v>40000</v>
@@ -1321,13 +1321,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
         <v>40000</v>
@@ -1344,19 +1344,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
-        <v>29509</v>
+        <v>40000</v>
       </c>
       <c r="G28" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1367,13 +1367,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
         <v>40000</v>
@@ -1390,13 +1390,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F30" s="18">
         <v>40000</v>
@@ -1413,13 +1413,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F31" s="18">
         <v>40000</v>
@@ -1436,13 +1436,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F32" s="18">
         <v>40000</v>
@@ -1459,13 +1459,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F33" s="18">
         <v>40000</v>
@@ -1482,13 +1482,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F34" s="18">
         <v>40000</v>
@@ -1505,13 +1505,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F35" s="18">
         <v>40000</v>
@@ -1528,13 +1528,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F36" s="18">
         <v>40000</v>
@@ -1551,13 +1551,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F37" s="18">
         <v>40000</v>
@@ -1574,13 +1574,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F38" s="18">
         <v>40000</v>
@@ -1597,16 +1597,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F39" s="24">
-        <v>38666</v>
+        <v>40000</v>
       </c>
       <c r="G39" s="24">
         <v>1000000</v>

--- a/Data/EC/NIT-9000733303.xlsx
+++ b/Data/EC/NIT-9000733303.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70B91EA2-9DD9-4CDE-850F-5904D539216D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBF8CF11-63BE-45DE-A23C-F37189762C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0BE473DE-7320-4A92-A740-FE3438B91E56}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F88C49F1-018D-461D-99A8-6FD82DB368F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,70 +71,70 @@
     <t>ANDI JOSE BANQUEZ JULIO</t>
   </si>
   <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>79328825</t>
+  </si>
+  <si>
+    <t>SANTIAGO FERNANDO SANCHEZ GOMEZ</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
     <t>1801</t>
   </si>
   <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>79328825</t>
-  </si>
-  <si>
-    <t>SANTIAGO FERNANDO SANCHEZ GOMEZ</t>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
   </si>
   <si>
     <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -233,7 +233,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -246,9 +248,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -448,23 +448,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -492,10 +492,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -548,7 +548,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8524BF07-E4F1-FB9F-8A66-D43FF5FF9489}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC48E61E-CE6E-5AFB-6610-23A053DDFAA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -899,7 +899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0EAFE7C-098D-4878-B900-0631546EEDCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16BCAB71-6095-40D2-96F8-A70DC5DAC2B6}">
   <dimension ref="B2:J45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1080,7 +1080,7 @@
         <v>29509</v>
       </c>
       <c r="G16" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1103,7 +1103,7 @@
         <v>29509</v>
       </c>
       <c r="G17" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1126,7 +1126,7 @@
         <v>29509</v>
       </c>
       <c r="G18" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1149,7 +1149,7 @@
         <v>29509</v>
       </c>
       <c r="G19" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1172,7 +1172,7 @@
         <v>29509</v>
       </c>
       <c r="G20" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1195,7 +1195,7 @@
         <v>29509</v>
       </c>
       <c r="G21" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1206,19 +1206,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
-        <v>29509</v>
+        <v>40000</v>
       </c>
       <c r="G22" s="18">
-        <v>737717</v>
+        <v>700000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1235,13 +1235,13 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F23" s="18">
         <v>29509</v>
       </c>
       <c r="G23" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1252,19 +1252,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>29509</v>
+        <v>40000</v>
       </c>
       <c r="G24" s="18">
-        <v>737717</v>
+        <v>700000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1275,19 +1275,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F25" s="18">
-        <v>38666</v>
+        <v>29509</v>
       </c>
       <c r="G25" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1298,19 +1298,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="F26" s="18">
         <v>40000</v>
       </c>
       <c r="G26" s="18">
-        <v>1000000</v>
+        <v>700000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1321,19 +1321,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="F27" s="18">
-        <v>40000</v>
+        <v>29509</v>
       </c>
       <c r="G27" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1344,19 +1344,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D28" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>21</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="F28" s="18">
         <v>40000</v>
       </c>
       <c r="G28" s="18">
-        <v>1000000</v>
+        <v>700000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1367,19 +1367,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F29" s="18">
         <v>40000</v>
       </c>
       <c r="G29" s="18">
-        <v>1000000</v>
+        <v>700000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1390,19 +1390,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F30" s="18">
         <v>40000</v>
       </c>
       <c r="G30" s="18">
-        <v>1000000</v>
+        <v>700000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1413,19 +1413,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F31" s="18">
         <v>40000</v>
       </c>
       <c r="G31" s="18">
-        <v>1000000</v>
+        <v>700000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1436,19 +1436,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F32" s="18">
         <v>40000</v>
       </c>
       <c r="G32" s="18">
-        <v>1000000</v>
+        <v>700000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1459,19 +1459,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F33" s="18">
         <v>40000</v>
       </c>
       <c r="G33" s="18">
-        <v>1000000</v>
+        <v>700000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1482,19 +1482,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F34" s="18">
         <v>40000</v>
       </c>
       <c r="G34" s="18">
-        <v>1000000</v>
+        <v>700000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1505,19 +1505,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F35" s="18">
         <v>40000</v>
       </c>
       <c r="G35" s="18">
-        <v>1000000</v>
+        <v>700000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1528,19 +1528,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F36" s="18">
         <v>40000</v>
       </c>
       <c r="G36" s="18">
-        <v>1000000</v>
+        <v>700000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1551,19 +1551,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F37" s="18">
         <v>40000</v>
       </c>
       <c r="G37" s="18">
-        <v>1000000</v>
+        <v>700000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1574,19 +1574,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F38" s="18">
         <v>40000</v>
       </c>
       <c r="G38" s="18">
-        <v>1000000</v>
+        <v>700000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1597,19 +1597,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F39" s="24">
-        <v>40000</v>
+        <v>38666</v>
       </c>
       <c r="G39" s="24">
-        <v>1000000</v>
+        <v>700000</v>
       </c>
       <c r="H39" s="25"/>
       <c r="I39" s="25"/>
